--- a/biology/Zoologie/Parc_naturel_de_Cabo_de_Gata-Níjar/Parc_naturel_de_Cabo_de_Gata-Níjar.xlsx
+++ b/biology/Zoologie/Parc_naturel_de_Cabo_de_Gata-Níjar/Parc_naturel_de_Cabo_de_Gata-Níjar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_Cabo_de_Gata-N%C3%ADjar</t>
+          <t>Parc_naturel_de_Cabo_de_Gata-Níjar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel de Cabo de Gata-Níjar se situe dans la Province d'Almería, en Andalousie (Espagne).
 Il occupe 49 512 ha de la partie occidentale du golfe d'Almería, dont 37 500 ha terrestres et 12 012 ha marins.
 Il a été déclaré Parc naturel en 1987, soit le premier parc naturel maritime-terrestre du pays.
 C'est probablement le seul espace de la côte méditerranéenne resté vierge en Espagne. De nombreuses espèces végétales xérophytes endémiques s'y rencontrent. Depuis peu, cet espace protégé est devenu un sanctuaire de la faune européenne.
 Le terrain est composé essentiellement de roches sédimentaires (sables, etc.) venant des fonds marins, mais aussi de roches volcaniques se présentant de différentes façons, comme des colonnes et des bombes volcaniques.
-En 1997, le parc est déclaré réserve de biosphère par l'UNESCO[1] puis géoparc en 2015[2]. Le 5 décembre 1989, une partie du parc, les Salinas del Cabo de Gata ont été déclarés site Ramsar[3].
+En 1997, le parc est déclaré réserve de biosphère par l'UNESCO puis géoparc en 2015. Le 5 décembre 1989, une partie du parc, les Salinas del Cabo de Gata ont été déclarés site Ramsar.
 Dans le parc naturel se trouve la localité de Rodalquilar et le Jardin Botanique de Albardinar.
 </t>
         </is>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_Cabo_de_Gata-N%C3%ADjar</t>
+          <t>Parc_naturel_de_Cabo_de_Gata-Níjar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C’est l’un des espaces naturels espagnols bénéficiant du plus grand nombre de mesures de protection, à la fois naturelles et culturelles. Ces inscriptions sont basées sur sa richesse géologique, écologique, historique, anthropologique et paysagère :
 C’est l’un des paysages les plus secs d’Europe, étant l’une des rares zones sub-désertiques européennes.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_Cabo_de_Gata-N%C3%ADjar</t>
+          <t>Parc_naturel_de_Cabo_de_Gata-Níjar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,9 +571,11 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec une température annuelle moyenne autour de 18 °C la région a un climat à la limite des climats tempérés et subtropicaux (l'isotherme moyen annuel de 18 °C fait office de limite). Ce climat est aussi semi-aride de type "Syrien" [4] ce qui signifie que la saison sèche a lieu pendant la saison chaude (6 mois les plus chauds de l'année). L'observatoire du Phare de Cabo de Gata (36°43'18.8 N, 2°11'34.69" O) a enregistré une moyenne annuelle des précipitations de 156 mm sur la période 1961-1990[5]. C'est donc une des régions les plus arides de la péninsule Ibérique et plus largement d'Europe.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec une température annuelle moyenne autour de 18 °C la région a un climat à la limite des climats tempérés et subtropicaux (l'isotherme moyen annuel de 18 °C fait office de limite). Ce climat est aussi semi-aride de type "Syrien"  ce qui signifie que la saison sèche a lieu pendant la saison chaude (6 mois les plus chauds de l'année). L'observatoire du Phare de Cabo de Gata (36°43'18.8 N, 2°11'34.69" O) a enregistré une moyenne annuelle des précipitations de 156 mm sur la période 1961-1990. C'est donc une des régions les plus arides de la péninsule Ibérique et plus largement d'Europe.
 </t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_Cabo_de_Gata-N%C3%ADjar</t>
+          <t>Parc_naturel_de_Cabo_de_Gata-Níjar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des dauphins séjournent couramment dans les eaux du parc.
 </t>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_naturel_de_Cabo_de_Gata-N%C3%ADjar</t>
+          <t>Parc_naturel_de_Cabo_de_Gata-Níjar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,9 +637,11 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sud du parc naturel, quelques hectares du désert de Tabernas comprenaient de grandes dunes de sable, dont le cinéma s'est servi comme décor pour des scènes censées se dérouler dans le Sahara ou en Orient. Dans Lawrence d'Arabie (1962), ce désert de poche tient lieu de désert d'Arabie pour la scène de l'attaque du train ottoman, alors que le reste des scènes de désert ont été essentiellement filmées en Jordanie[6],[7]. Dans La Folie des grandeurs (1971), la zone sert de cadre au camp des Barbaresques[7],[8]. Ce paysage ensablé est bien moins impressionnant au début du XXIe siècle, le sable ayant désormais en grande partie disparu, soit en s'étant déplacé vers les plages proches par des phénomènes naturels, soit à cause de l'activité humaine, notamment son utilisation pour la construction des infrastructures touristiques de la région[6],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sud du parc naturel, quelques hectares du désert de Tabernas comprenaient de grandes dunes de sable, dont le cinéma s'est servi comme décor pour des scènes censées se dérouler dans le Sahara ou en Orient. Dans Lawrence d'Arabie (1962), ce désert de poche tient lieu de désert d'Arabie pour la scène de l'attaque du train ottoman, alors que le reste des scènes de désert ont été essentiellement filmées en Jordanie,. Dans La Folie des grandeurs (1971), la zone sert de cadre au camp des Barbaresques,. Ce paysage ensablé est bien moins impressionnant au début du XXIe siècle, le sable ayant désormais en grande partie disparu, soit en s'étant déplacé vers les plages proches par des phénomènes naturels, soit à cause de l'activité humaine, notamment son utilisation pour la construction des infrastructures touristiques de la région,.
 </t>
         </is>
       </c>
